--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2141585.769094305</v>
+        <v>2159960.458560426</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9963012.959981354</v>
+        <v>9963012.959981356</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>312.9807318302821</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>322.7907006162803</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>67.65349471023481</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>110.0115294480441</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>287.3496503247695</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>64.59540826652986</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>21.80452784014502</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>144.2437983476342</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>297.5767637923575</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>319.3678335162787</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>128.8014312500954</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>162.3912409166445</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.0040639736086</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>97.51043302167577</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>16.50281054245928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.0379544251176</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.14683624344</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>37.27952228077739</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323832</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056483</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>39.84822692072444</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>183.6274390026643</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.97986885601766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>113.0773208400586</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.4653217847137</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.96451678969</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>27.78541561721894</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.2901150598435</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>241.5840743031231</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>71.85738748352883</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>207.0950480193516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>11.49673161989761</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>194.9576419790507</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.84822692072444</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>941.2608351981287</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.0282177315058</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>280.0282177315058</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1273.280804219765</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C5" t="n">
-        <v>904.3182872793534</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>904.3182872793534</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>518.5300346811091</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>511.5845339319056</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>497.6611298704966</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.019976259699</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1659.880644283887</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942404</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C7" t="n">
-        <v>381.6292235663335</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>381.6292235663335</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>233.7161299839404</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>233.7161299839404</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>233.7161299839404</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>75.96775741647053</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>404.8646000824888</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134.473993239634</v>
+        <v>1744.740694543504</v>
       </c>
       <c r="C8" t="n">
-        <v>765.5114762992221</v>
+        <v>1744.740694543504</v>
       </c>
       <c r="D8" t="n">
-        <v>765.5114762992221</v>
+        <v>1744.740694543504</v>
       </c>
       <c r="E8" t="n">
-        <v>765.5114762992221</v>
+        <v>1358.95244194526</v>
       </c>
       <c r="F8" t="n">
-        <v>354.5255715096145</v>
+        <v>947.9665371556523</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>530.0027290538392</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036447</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564835</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303755</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="Y8" t="n">
-        <v>1521.073833303755</v>
+        <v>1744.740694543504</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.0454376285417</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C10" t="n">
-        <v>184.0454376285417</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D10" t="n">
-        <v>184.0454376285417</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>184.0454376285417</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>184.0454376285417</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036447</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406187</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587814</v>
+        <v>484.4236418782193</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587814</v>
+        <v>484.4236418782193</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587814</v>
+        <v>484.4236418782193</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587814</v>
+        <v>484.4236418782193</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587814</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587814</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587814</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,28 +5039,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5121,19 +5121,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766205</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0596387883054</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0596387883054</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5197,16 +5197,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333287</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273998</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0280401273998</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>844.0280401273998</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>623.2354609838696</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="14">
@@ -5261,16 +5261,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
@@ -5358,19 +5358,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>378.1030765138935</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>624.8682044203576</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>932.1883377003194</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.59991596447</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5250474102529</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1482.246764959459</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1482.246764959459</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1482.246764959459</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333287</v>
+        <v>1482.246764959459</v>
       </c>
       <c r="V16" t="n">
-        <v>904.7347965907436</v>
+        <v>1482.246764959459</v>
       </c>
       <c r="W16" t="n">
-        <v>615.317626553783</v>
+        <v>1192.829594922498</v>
       </c>
       <c r="X16" t="n">
-        <v>615.317626553783</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.5250474102529</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5598,13 +5598,13 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845923</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>4860.854573014292</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>4606.170084808406</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>4316.752914771445</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>4088.763363873428</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>3902.756458577024</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281742</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945775</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.197584164472</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3926.93939853886</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C22" t="n">
-        <v>3926.93939853886</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D22" t="n">
-        <v>3889.283315426963</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E22" t="n">
-        <v>3889.283315426963</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
         <v>3459.155393916675</v>
@@ -5920,40 +5920,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T22" t="n">
         <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>4437.14914771935</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V22" t="n">
-        <v>4437.14914771935</v>
+        <v>3893.336020727018</v>
       </c>
       <c r="W22" t="n">
-        <v>4147.73197768239</v>
+        <v>3603.918850690057</v>
       </c>
       <c r="X22" t="n">
-        <v>4147.73197768239</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="Y22" t="n">
-        <v>3926.93939853886</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>638.3691419079756</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300437</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3966.372044102668</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>3797.435861174762</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>3647.319221762426</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>3499.406128180033</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>3499.406128180033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3499.406128180033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.020508932908</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>4148.020508932908</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="W25" t="n">
-        <v>4148.020508932908</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X25" t="n">
-        <v>4148.020508932908</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y25" t="n">
-        <v>4148.020508932908</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,28 +6209,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6245,10 +6245,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,16 +6291,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256434</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>412.2823606383756</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247858</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V28" t="n">
-        <v>964.1357418247858</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W28" t="n">
-        <v>674.7185717878251</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X28" t="n">
-        <v>674.7185717878251</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y28" t="n">
-        <v>593.9308254686154</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>3540.192194764783</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>3870.054822428816</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>4539.518583731475</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4744.541064513684</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>936.0662010112162</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.055751909234</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W31" t="n">
-        <v>1164.055751909234</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>936.0662010112162</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>936.0662010112162</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6698,13 +6698,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.87950510831</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>3177.427413012049</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556161</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774858</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557068</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>670.514436100302</v>
+        <v>850.2141304319072</v>
       </c>
       <c r="C34" t="n">
-        <v>670.514436100302</v>
+        <v>850.2141304319072</v>
       </c>
       <c r="D34" t="n">
-        <v>670.514436100302</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>522.6013425179088</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>375.7113950199985</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W34" t="n">
-        <v>898.5039869983193</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X34" t="n">
-        <v>670.514436100302</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y34" t="n">
-        <v>670.514436100302</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>245.130185042679</v>
+        <v>3778.50958529664</v>
       </c>
       <c r="C37" t="n">
-        <v>245.130185042679</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="U37" t="n">
-        <v>898.7925182488382</v>
+        <v>4260.730820705229</v>
       </c>
       <c r="V37" t="n">
-        <v>654.768200770936</v>
+        <v>4260.730820705229</v>
       </c>
       <c r="W37" t="n">
-        <v>654.768200770936</v>
+        <v>4260.730820705229</v>
       </c>
       <c r="X37" t="n">
-        <v>426.7786498729187</v>
+        <v>4032.741269807212</v>
       </c>
       <c r="Y37" t="n">
-        <v>426.7786498729187</v>
+        <v>3960.15805012688</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7366,16 +7366,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>786.0822064765186</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7409,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7451,10 +7451,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>3033.644633014775</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>3340.964766294737</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>3670.827393958769</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4051.012815061419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>4051.012815061419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3900.896175649083</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4749.779469576118</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>4460.650830789676</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>4460.650830789676</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W43" t="n">
-        <v>4460.650830789676</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X43" t="n">
-        <v>4232.661279891659</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>4232.661279891659</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7631,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,16 +7664,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3966.37204410267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3797.435861174763</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3647.319221762428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3499.406128180035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929846</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4437.149147719352</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>4148.02050893291</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>4148.02050893291</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>4148.02050893291</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>4148.02050893291</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>4148.02050893291</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>306.1147370139951</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>91.23759968302019</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>124.3400780863221</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119822</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776731</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>104.8749102765738</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>18.73797368291358</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>145.2351313103784</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>148.2747143566559</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>306.1147370139957</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.30006332127829</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.8279162083287</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>121.074220330419</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>93.46154186133349</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,16 +23707,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>60.09968889871041</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.4378171086548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>111.335950737435</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>109.0656014468117</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>68.51020432116371</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>228.5889167740531</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.6047844960771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>54.1695002585692</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>14.45548819888955</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>120.8300574009934</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.203453403534098</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25327,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>10.55356902070486</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>146.727265868566</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25606,16 +25606,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.48960533274322</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>134.9372310266716</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>57.18000134477734</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.5728211022068</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,25 +26071,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109151</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109155</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049989</v>
@@ -26320,40 +26320,40 @@
         <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="F2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.6836327922</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.6836327921</v>
       </c>
       <c r="H2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327916</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327924</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852684</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871665</v>
@@ -26485,22 +26485,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26509,7 +26509,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275116.8168582233</v>
+        <v>-272588.4956947813</v>
       </c>
       <c r="C6" t="n">
-        <v>314851.0623563209</v>
+        <v>317379.3835197632</v>
       </c>
       <c r="D6" t="n">
-        <v>314851.062356321</v>
+        <v>317379.3835197632</v>
       </c>
       <c r="E6" t="n">
-        <v>-101045.0435831199</v>
+        <v>-99010.22434512255</v>
       </c>
       <c r="F6" t="n">
-        <v>424114.9928937763</v>
+        <v>426149.8121317733</v>
       </c>
       <c r="G6" t="n">
-        <v>424114.9928937763</v>
+        <v>426149.8121317733</v>
       </c>
       <c r="H6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.8121317733</v>
       </c>
       <c r="I6" t="n">
-        <v>424114.992893776</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="J6" t="n">
-        <v>247691.7737011836</v>
+        <v>249726.5929391805</v>
       </c>
       <c r="K6" t="n">
-        <v>424114.9928937765</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="L6" t="n">
-        <v>424114.9928937764</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="M6" t="n">
-        <v>289313.9776599392</v>
+        <v>291348.7968979357</v>
       </c>
       <c r="N6" t="n">
-        <v>424114.9928937763</v>
+        <v>426149.8121317727</v>
       </c>
       <c r="O6" t="n">
-        <v>424114.9928937763</v>
+        <v>426149.8121317729</v>
       </c>
       <c r="P6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.8121317735</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541005</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545558</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.75310983319844</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>63.44723803977325</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59332638839302</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>142.1261138757839</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>36.57312243958762</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>186.6287592417594</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>113.1610939521932</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>142.2791999889568</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>116.2074062284375</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>4.554939248078426</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>38.50837100895546</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>124.1317574199465</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047519</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713858</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>588.4784392551034</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>241.8130382709595</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415666</v>
@@ -35741,7 +35741,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507419</v>
@@ -35899,13 +35899,13 @@
         <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>434.7644551367885</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315248</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091978</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303314</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>354.1326152325982</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>106.7510064679877</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>394.4928362664027</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>510.0474576375759</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>298.8501529445951</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>588.4784392551038</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>88.0130327850741</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>418.4946367192911</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2159960.458560426</v>
+        <v>2235490.128225231</v>
       </c>
     </row>
     <row r="7">
@@ -665,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>366.0755190050651</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.7907006162803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>13.7210176553111</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>110.0115294480441</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>105.0839683962668</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>64.59540826652986</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>144.2437983476342</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>319.3678335162787</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>167.5990957313719</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>162.3912409166445</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>32.89657674137995</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.51043302167577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>16.50281054245928</v>
+        <v>84.80648199306624</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836071</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>224.8952567231525</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>57.56452900498377</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174138</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323832</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056483</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>172.7067178467369</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>183.6274390026643</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>155.8385935972305</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274191</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.4653217847137</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>134.7660731567842</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>27.78541561721894</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.3961615558498</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>71.85738748352883</v>
+        <v>190.6405752120378</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>102.3388661785147</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.7660731567842</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9576419790507</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>941.2608351981287</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="C2" t="n">
-        <v>941.2608351981287</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y2" t="n">
-        <v>941.2608351981287</v>
+        <v>1322.340737411353</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>67.80259561360799</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>313.5543804477666</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2182.06035969704</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2182.06035969704</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.06035969704</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.06035969704</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.921027721229</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1237.953133915166</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.8646000824888</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545818</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545818</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545818</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>404.8646000824888</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>404.8646000824888</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.8646000824888</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1744.740694543504</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1744.740694543504</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1744.740694543504</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1358.95244194526</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>947.9665371556523</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>530.0027290538392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862887</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519316</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519316</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2134.880026519316</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1744.740694543504</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782193</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782193</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782193</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782193</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>320.3920853967602</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,28 +5041,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5123,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
         <v>1302.911127126629</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>990.7828679390639</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="C13" t="n">
-        <v>821.846685011157</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988212</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
         <v>208.7516828383384</v>
@@ -5197,16 +5199,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y13" t="n">
-        <v>1172.431332769303</v>
+        <v>241.9805482336716</v>
       </c>
     </row>
     <row r="14">
@@ -5261,16 +5263,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
@@ -5279,7 +5281,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.3990000507114</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507114</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5437,10 +5439,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1482.246764959459</v>
+        <v>1413.253157433594</v>
       </c>
       <c r="S16" t="n">
-        <v>1482.246764959459</v>
+        <v>1213.333147349146</v>
       </c>
       <c r="T16" t="n">
-        <v>1482.246764959459</v>
+        <v>989.5477321386514</v>
       </c>
       <c r="U16" t="n">
-        <v>1482.246764959459</v>
+        <v>989.5477321386514</v>
       </c>
       <c r="V16" t="n">
-        <v>1482.246764959459</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.829594922498</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="X16" t="n">
-        <v>964.8400440244812</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.0474648809511</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,25 +5582,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,22 +5691,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.210845262957</v>
       </c>
       <c r="V19" t="n">
         <v>1017.064856369034</v>
@@ -5741,22 +5743,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.020508932908</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>3893.336020727018</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>3603.918850690057</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916675</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6072,22 +6074,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>4486.483332781627</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>4197.354693995185</v>
       </c>
       <c r="V25" t="n">
-        <v>1113.513998854602</v>
+        <v>4197.354693995185</v>
       </c>
       <c r="W25" t="n">
-        <v>1113.513998854602</v>
+        <v>3907.937523958224</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.513998854602</v>
+        <v>3679.947973060207</v>
       </c>
       <c r="Y25" t="n">
-        <v>892.7214197110717</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="26">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6415,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1186.00103929694</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>896.5838692599799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>668.5943183619626</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184324</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805481</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822474</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6539,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
         <v>1247.466478653857</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1313.597763704656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1089.812348494162</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>800.6837097077201</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>545.9992215018333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>1362.788923934888</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,22 +6691,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6722,13 +6724,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>850.2141304319072</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C34" t="n">
-        <v>850.2141304319072</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1396.495905349973</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1396.495905349973</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1396.495905349973</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>1107.367266563532</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.996260473455</v>
+        <v>1107.367266563532</v>
       </c>
       <c r="W34" t="n">
-        <v>1298.996260473455</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="X34" t="n">
-        <v>1071.006709575437</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y34" t="n">
-        <v>850.2141304319072</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,61 +6925,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7020,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3778.50958529664</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="C37" t="n">
-        <v>3609.573402368733</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="D37" t="n">
-        <v>3609.573402368733</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="E37" t="n">
-        <v>3609.573402368733</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368733</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368733</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491671</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.859459491671</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U37" t="n">
-        <v>4260.730820705229</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V37" t="n">
-        <v>4260.730820705229</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W37" t="n">
-        <v>4260.730820705229</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X37" t="n">
-        <v>4032.741269807212</v>
+        <v>3799.634725086986</v>
       </c>
       <c r="Y37" t="n">
-        <v>3960.15805012688</v>
+        <v>3607.068487499069</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7168,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7193,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7254,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>559.3999450277973</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>806.1650729342614</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1113.485206214223</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.347833878256</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1395.543678458393</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1171.758263247898</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1171.758263247898</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>917.0737750420114</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>917.0737750420114</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>917.0737750420114</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2811958984813</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,28 +7396,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7451,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>233.3444380833002</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7597,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>789.0753054710162</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>499.6581354340557</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="44">
@@ -7625,22 +7627,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7649,7 +7651,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,28 +7715,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
         <v>2051.878056918008</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,31 +7824,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,13 +9245,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>38.8600230194987</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229581</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>148.2747143566559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,10 +11384,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>113.5373859051892</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.074220330419</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.46154186133349</v>
+        <v>25.15787041072653</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23938,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.34209567542487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>194.5731143188442</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338886</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>48.84084321165233</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>68.51020432116371</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24655,13 +24657,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>228.5889167740531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>14.45548819888955</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>151.7569251798068</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>120.8300574009934</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>8.568190847943015</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.727265868566</v>
+        <v>27.94407814005703</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>95.58194380508856</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>14.14775521075197</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25837,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>57.18000134477734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109151</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.683632792</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327916</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="O2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327924</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230227</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230227</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26442,16 +26444,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="L4" t="n">
         <v>29303.54555230234</v>
       </c>
-      <c r="L4" t="n">
-        <v>29303.54555230238</v>
-      </c>
       <c r="M4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="N4" t="n">
         <v>29303.54555230234</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272588.4956947813</v>
+        <v>-272588.4956947811</v>
       </c>
       <c r="C6" t="n">
         <v>317379.3835197632</v>
       </c>
       <c r="D6" t="n">
-        <v>317379.3835197632</v>
+        <v>317379.3835197629</v>
       </c>
       <c r="E6" t="n">
-        <v>-99010.22434512255</v>
+        <v>-99010.22434512354</v>
       </c>
       <c r="F6" t="n">
-        <v>426149.8121317733</v>
+        <v>426149.812131773</v>
       </c>
       <c r="G6" t="n">
-        <v>426149.8121317733</v>
+        <v>426149.8121317731</v>
       </c>
       <c r="H6" t="n">
-        <v>426149.8121317733</v>
+        <v>426149.8121317736</v>
       </c>
       <c r="I6" t="n">
-        <v>426149.8121317732</v>
+        <v>426149.8121317731</v>
       </c>
       <c r="J6" t="n">
-        <v>249726.5929391805</v>
+        <v>249726.5929391807</v>
       </c>
       <c r="K6" t="n">
         <v>426149.8121317732</v>
       </c>
       <c r="L6" t="n">
+        <v>426149.8121317731</v>
+      </c>
+      <c r="M6" t="n">
+        <v>291348.7968979361</v>
+      </c>
+      <c r="N6" t="n">
+        <v>426149.8121317729</v>
+      </c>
+      <c r="O6" t="n">
         <v>426149.8121317732</v>
       </c>
-      <c r="M6" t="n">
-        <v>291348.7968979357</v>
-      </c>
-      <c r="N6" t="n">
-        <v>426149.8121317727</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>426149.8121317729</v>
-      </c>
-      <c r="P6" t="n">
-        <v>426149.8121317735</v>
       </c>
     </row>
   </sheetData>
@@ -26738,25 +26740,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990177</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>40.80052673664636</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>63.44723803977325</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>132.7129449912581</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>142.1261138757839</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>218.8388043680903</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>186.6287592417594</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.882105749397248</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>142.2791999889568</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>4.554939248078426</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>155.9865295915269</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>57.43600972671234</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>124.1317574199465</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.144708848783168e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28333,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-8.707735062108396e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28770,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-3.796617681797508e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29530,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-1.144708848783168e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -31282,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>189.4354616074379</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36689,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415663</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37163,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37400,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>298.8501529445951</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37634,7 +37636,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
@@ -37643,7 +37645,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2235490.128225231</v>
+        <v>2228473.113333518</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9963012.959981356</v>
+        <v>9963012.959981354</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>366.0755190050651</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>292.0304317599545</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.7210176553111</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>174.8813118982898</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>105.0839683962668</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>21.86332069614261</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>163.9206648785249</v>
       </c>
       <c r="T8" t="n">
-        <v>60.46179076613092</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>167.5990957313719</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>32.89657674137995</v>
+        <v>91.97546116399332</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.80648199306624</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,13 +1821,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>263.3452520788649</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836071</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>57.56452900498377</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174138</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>174.7430637258772</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T25" t="n">
-        <v>172.7067178467369</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>155.8385935972305</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274191</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>134.7660731567842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.3961615558498</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>53.98383637884901</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.6405752120378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>102.3388661785147</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.7660731567842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1322.340737411353</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C2" t="n">
-        <v>1322.340737411353</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="D2" t="n">
-        <v>1322.340737411353</v>
+        <v>909.0463493350958</v>
       </c>
       <c r="E2" t="n">
-        <v>1322.340737411353</v>
+        <v>523.2580967368515</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>516.312595987648</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>502.3891919262389</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1322.340737411353</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1322.340737411353</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.9192350259437</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C4" t="n">
-        <v>217.9192350259437</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>67.80259561360799</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9192350259437</v>
+        <v>551.4811944101821</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2255.520561484594</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1886.558044544182</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1528.292345937431</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1142.504093339187</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>731.5181885495797</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>313.5543804477666</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2675.064928698886</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2498.887441013057</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2498.887441013057</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2245.125655651148</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1914.062768307577</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1561.294113037463</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="Y5" t="n">
-        <v>2642.120401548716</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464703</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
         <v>74.81188663097703</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>529.4200491697815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.9805482336716</v>
+        <v>337.0115451844521</v>
       </c>
       <c r="C13" t="n">
-        <v>241.9805482336716</v>
+        <v>337.0115451844521</v>
       </c>
       <c r="D13" t="n">
-        <v>241.9805482336716</v>
+        <v>337.0115451844521</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765191</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706323</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336716</v>
+        <v>785.7936752259996</v>
       </c>
       <c r="X13" t="n">
-        <v>241.9805482336716</v>
+        <v>557.8041243279822</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.9805482336716</v>
+        <v>337.0115451844521</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5269,19 +5269,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5302,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.8632439327646</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048577</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1413.253157433594</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1213.333147349146</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>989.5477321386514</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>989.5477321386514</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>734.8632439327646</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>734.8632439327646</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X16" t="n">
-        <v>734.8632439327646</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.8632439327646</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>326.249275617007</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473451</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262957</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262957</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5837,22 +5837,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929846</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4486.483332781627</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4197.354693995185</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4197.354693995185</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3907.937523958224</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3679.947973060207</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>254.6298122655692</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1270.926719659885</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805481</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822474</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1362.788923934888</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1134.799373036871</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1396.495905349973</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1396.495905349973</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1396.495905349973</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1107.367266563532</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1107.367266563532</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>817.9500965265709</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>817.9500965265709</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.1575173830407</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,52 +6937,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3607.068487499069</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C37" t="n">
-        <v>3607.068487499069</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D37" t="n">
-        <v>3607.068487499069</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.72593422785</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>4317.041446021964</v>
+        <v>931.4730889055638</v>
       </c>
       <c r="W37" t="n">
-        <v>4027.624275985003</v>
+        <v>642.0559188686032</v>
       </c>
       <c r="X37" t="n">
-        <v>3799.634725086986</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y37" t="n">
-        <v>3607.068487499069</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1395.543678458393</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1171.758263247898</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1171.758263247898</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>917.0737750420114</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>917.0737750420114</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>917.0737750420114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,34 +7390,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,13 +7499,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>233.3444380833002</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,28 +7824,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N12" t="n">
-        <v>423.337678916511</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>38.8600230194987</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720729</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>113.5373859051892</v>
+        <v>54.45850148257585</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.15787041072653</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>23.17774625772614</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>194.5731143188442</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T25" t="n">
-        <v>48.84084321165233</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>10.65497486614709</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>151.7569251798068</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>8.568190847943015</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,13 +25365,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>198.153806944979</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.94407814005703</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>95.58194380508856</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>14.14775521075197</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109151</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327917</v>
+        <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="G2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327924</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="J2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="K2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="M2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327922</v>
       </c>
       <c r="P2" t="n">
         <v>547440.6836327919</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230227</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230227</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="M4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="K4" t="n">
-        <v>29303.54555230228</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>29303.54555230234</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230234</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272588.4956947811</v>
+        <v>-272588.4956947813</v>
       </c>
       <c r="C6" t="n">
-        <v>317379.3835197632</v>
+        <v>317379.3835197628</v>
       </c>
       <c r="D6" t="n">
-        <v>317379.3835197629</v>
+        <v>317379.3835197628</v>
       </c>
       <c r="E6" t="n">
-        <v>-99010.22434512354</v>
+        <v>-99984.81560484465</v>
       </c>
       <c r="F6" t="n">
-        <v>426149.812131773</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="G6" t="n">
-        <v>426149.8121317731</v>
+        <v>425175.2208720515</v>
       </c>
       <c r="H6" t="n">
-        <v>426149.8121317736</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="I6" t="n">
-        <v>426149.8121317731</v>
+        <v>425175.2208720511</v>
       </c>
       <c r="J6" t="n">
-        <v>249726.5929391807</v>
+        <v>248752.0016794582</v>
       </c>
       <c r="K6" t="n">
-        <v>426149.8121317732</v>
+        <v>425175.2208720514</v>
       </c>
       <c r="L6" t="n">
-        <v>426149.8121317731</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="M6" t="n">
-        <v>291348.7968979361</v>
+        <v>290374.205638214</v>
       </c>
       <c r="N6" t="n">
-        <v>426149.8121317729</v>
+        <v>425175.2208720517</v>
       </c>
       <c r="O6" t="n">
-        <v>426149.8121317732</v>
+        <v>425175.2208720512</v>
       </c>
       <c r="P6" t="n">
-        <v>426149.8121317729</v>
+        <v>425175.2208720513</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541005</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>40.80052673664636</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31.89234100440268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>132.7129449912581</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>43.70334145380497</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>218.8388043680903</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>32.61508187866912</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>1.882105749397248</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>10.49504793044667</v>
       </c>
       <c r="T8" t="n">
-        <v>155.9865295915269</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>57.43600972671234</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.144708848783168e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.707735062108396e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28772,7 +28772,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-3.796617681797508e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.144708848783168e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>189.4354616074379</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2228473.113333518</v>
+        <v>2233412.376182551</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>292.0304317599545</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>120.0389752404585</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>148.8271244776258</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>174.8813118982898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>19.6643065849821</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>21.86332069614261</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>17.36390763391859</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>40.08888759810005</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>163.9206648785249</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>91.97546116399332</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>32.28492340924037</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>263.3452520788649</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>65.02542837032512</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>174.7430637258772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056522</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>232.9016561088029</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151921</v>
+        <v>144.4496459784231</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,7 +3483,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>53.98383637884901</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>51.44029960352545</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4324,19 +4324,19 @@
         <v>502.3891919262389</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>175.1944719622418</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4421,19 +4421,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y4" t="n">
-        <v>551.4811944101821</v>
+        <v>249.9299350185087</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1228.845773759393</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>870.5800751526426</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>484.7918225543984</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>73.80591776479082</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2675.064928698886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2498.887441013057</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2498.887441013057</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2245.125655651148</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1914.062768307577</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1561.294113037463</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X5" t="n">
-        <v>1187.828354776384</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1187.828354776384</v>
+        <v>1597.808290699805</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>710.5896835661124</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2531.572661847995</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2531.572661847995</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1031.077791139709</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>337.0115451844521</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>337.0115451844521</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>337.0115451844521</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
         <v>244.1070389581962</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>1402.931168891562</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259996</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X13" t="n">
-        <v>557.8041243279822</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y13" t="n">
-        <v>337.0115451844521</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
         <v>265.3924131404652</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>265.3924131404652</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>265.3924131404652</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,22 +5518,22 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5560,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1233.314009594338</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>944.1853708078966</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>944.1853708078966</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="20">
@@ -5743,34 +5743,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6074,7 +6074,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6147,7 +6147,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
@@ -6156,7 +6156,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,19 +6174,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,22 +6293,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
         <v>921.1936903636253</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1008.977584262316</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6530,22 +6530,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
         <v>921.1936903636253</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1129.22212203587</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,22 +6700,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6785,7 +6785,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
@@ -6858,7 +6858,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688073</v>
@@ -6867,7 +6867,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515096</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7095,7 +7095,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688073</v>
@@ -7104,7 +7104,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>931.4730889055638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>642.0559188686032</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7332,16 +7332,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,31 +7350,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7399,31 +7399,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>149.1769900497055</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>149.1769900497055</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>874.9271131227927</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>620.2426249169058</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>330.8254548799452</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>330.8254548799452</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>330.8254548799452</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,19 +8771,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9008,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298194</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229572</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711627</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229572</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>54.45850148257585</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>157.1123926741515</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>114.1490392373288</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>23.17774625772614</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>156.5221326880641</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>50.96659166315999</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>82.393833183385</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338525</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>53.62134222778809</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338523</v>
+        <v>141.7877064201542</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>198.153806944979</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518765</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>97.1751734146869</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>103.0576765518772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049991</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049984</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="H2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="I2" t="n">
-        <v>547440.683632792</v>
-      </c>
       <c r="J2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="M2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="O2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
         <v>547440.6836327919</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26438,25 +26438,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230231</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,7 +26505,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272588.4956947813</v>
+        <v>-272588.495694781</v>
       </c>
       <c r="C6" t="n">
-        <v>317379.3835197628</v>
+        <v>317379.3835197632</v>
       </c>
       <c r="D6" t="n">
-        <v>317379.3835197628</v>
+        <v>317379.3835197632</v>
       </c>
       <c r="E6" t="n">
-        <v>-99984.81560484465</v>
+        <v>-99107.68347109528</v>
       </c>
       <c r="F6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.353005801</v>
       </c>
       <c r="G6" t="n">
-        <v>425175.2208720515</v>
+        <v>426052.353005801</v>
       </c>
       <c r="H6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.3530058009</v>
       </c>
       <c r="I6" t="n">
-        <v>425175.2208720511</v>
+        <v>426052.3530058003</v>
       </c>
       <c r="J6" t="n">
-        <v>248752.0016794582</v>
+        <v>249629.133813208</v>
       </c>
       <c r="K6" t="n">
-        <v>425175.2208720514</v>
+        <v>426052.3530058009</v>
       </c>
       <c r="L6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.3530058009</v>
       </c>
       <c r="M6" t="n">
-        <v>290374.205638214</v>
+        <v>291251.3377719639</v>
       </c>
       <c r="N6" t="n">
-        <v>425175.2208720517</v>
+        <v>426052.3530058008</v>
       </c>
       <c r="O6" t="n">
-        <v>425175.2208720512</v>
+        <v>426052.3530058008</v>
       </c>
       <c r="P6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.3530058011</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26758,25 +26758,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>31.89234100440268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.89234100440271</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>31.0048557043115</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.70334145380497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>394.1198634358129</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>32.61508187866912</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>11.75884232099571</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>342.6449540653805</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>10.49504793044667</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32709,16 +32709,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927188</v>
@@ -32727,19 +32727,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
         <v>0.2670576580354894</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,19 +32879,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336902</v>
@@ -32900,7 +32900,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,16 +32946,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927188</v>
@@ -32964,19 +32964,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
         <v>0.2670576580354894</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,19 +33116,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336902</v>
@@ -33137,7 +33137,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,16 +33183,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927188</v>
@@ -33201,19 +33201,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
         <v>0.2670576580354894</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33353,19 +33353,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336902</v>
@@ -33374,7 +33374,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,16 +33420,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927188</v>
@@ -33438,19 +33438,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
         <v>0.2670576580354894</v>
@@ -33496,7 +33496,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
@@ -33505,19 +33505,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710957</v>
@@ -33526,13 +33526,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33590,19 +33590,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336902</v>
@@ -33611,7 +33611,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,16 +33657,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927188</v>
@@ -33675,19 +33675,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
         <v>0.2670576580354894</v>
@@ -33733,7 +33733,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
@@ -33742,19 +33742,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710957</v>
@@ -33763,13 +33763,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33827,19 +33827,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336902</v>
@@ -33848,7 +33848,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
@@ -35728,25 +35728,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081121</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980131</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209233</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36527,16 +36527,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081121</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980131</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209233</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36764,16 +36764,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081121</v>
@@ -36852,10 +36852,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980131</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209233</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -37001,16 +37001,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081121</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980131</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209233</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37238,16 +37238,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081121</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37475,16 +37475,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303311</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
